--- a/project2/analysis-manual/Question3 Analysis.xlsx
+++ b/project2/analysis-manual/Question3 Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="8784" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="8784" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Q5" sheetId="2" r:id="rId3"/>
     <sheet name="Q6-3" sheetId="4" r:id="rId4"/>
     <sheet name="Q6-5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Q7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -43969,9 +43969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/project2/analysis-manual/Question3 Analysis.xlsx
+++ b/project2/analysis-manual/Question3 Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="8784" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="8784" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Q3" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -73,12 +73,36 @@
   <si>
     <t>DP</t>
   </si>
+  <si>
+    <t>DP V1</t>
+  </si>
+  <si>
+    <t>DP v2</t>
+  </si>
+  <si>
+    <t>DP V3</t>
+  </si>
+  <si>
+    <t>DP v4</t>
+  </si>
+  <si>
+    <t>DP v5</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +233,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,9 +588,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1586,6 +1620,1684 @@
       <a:solidFill>
         <a:schemeClr val="accent1">
           <a:alpha val="99000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DP Average Runtimes b</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0968725119426702E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8819349999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1218277269108199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8897541799363199E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8620310000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58CE-418E-A3EA-DDC2F160FBCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478181976"/>
+        <c:axId val="478176728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478181976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478176728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478176728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478181976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DP Average Runtimes C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7350778761942603E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8439740000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3662917993630503E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4661375398089099E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5857136000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0A9-4F9D-A2BF-6B0D5398F786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475157360"/>
+        <c:axId val="475158016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475157360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475158016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475158016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475157360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$E$35:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$F$35:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4163017515923501E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8062798566869097E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2599999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5199999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3300000000000005E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7007-4D3A-8379-D62C25DC4C99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531010608"/>
+        <c:axId val="531006016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531010608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531006016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="531006016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531010608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$I$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$H$35:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$I$35:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4600666799363E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3852010350314804E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4099999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0199999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37BC-4797-B518-31210D603333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530996504"/>
+        <c:axId val="530996832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530996504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530996832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530996832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530996504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$K$35:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$L$35:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.00455314490446E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5933519108274297E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1500000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.06E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2099999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32F5-49FE-B85F-5A7E444B2501}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476392368"/>
+        <c:axId val="476395320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="476392368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476395320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476395320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476392368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -23726,7 +25438,473 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DP Average Runtimes A</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q7'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q7'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q7'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.70644655652866E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8659900000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0223427547770699E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06006170382166E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4509170000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-242C-45AD-8E8E-FCA1979B2B84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475155392"/>
+        <c:axId val="475156376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475155392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475156376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475156376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475155392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -23966,7 +26144,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27062,6 +30908,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -27316,6 +32710,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>286872</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>591672</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43967,12 +49546,730 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7.70644655652866E-4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>7.70644655652866E-4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>2.0968725119426702E-3</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>6.7350778761942603E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.0968725119426702E-3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7.8659900000000002E-4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1.8819349999999999E-3</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>7.8439740000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6.7350778761942603E-3</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>1.0223427547770699E-3</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>3.1218277269108199E-3</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>9.3662917993630503E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>3.06006170382166E-3</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>7.8897541799363199E-3</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>2.4661375398089099E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>4.4509170000000004E-3</v>
+      </c>
+      <c r="I7">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>1.8620310000000001E-2</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>7.5857136000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>7.8659900000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1.8819349999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>7.8439740000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.0223427547770699E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>3.1218277269108199E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>9.3662917993630503E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>3.06006170382166E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>7.8897541799363199E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>2.4661375398089099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>4.4509170000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>1.8620310000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>7.5857136000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4.4163017515923501E-6</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.4163017515923501E-6</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2.4600666799363E-5</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1.00455314490446E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.4600666799363E-5</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7.8062798566869097E-6</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.3852010350314804E-6</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6.5933519108274297E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>517</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.00455314490446E-5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.2599999999999996E-6</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5.4099999999999999E-6</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.5199999999999997E-6</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38" s="1">
+        <v>6.9E-6</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1.06E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.3300000000000005E-6</v>
+      </c>
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8.0199999999999994E-6</v>
+      </c>
+      <c r="K39">
+        <v>34</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9.2099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H40">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.34E-5</v>
+      </c>
+      <c r="K40">
+        <v>73</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7.8062798566869097E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>176</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.3852010350314804E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>517</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6.5933519108274297E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.2599999999999996E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>176</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5.4099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>517</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7.1500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>75</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8.5199999999999997E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>176</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.9E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>517</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.06E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>34</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9.3300000000000005E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>176</v>
+      </c>
+      <c r="B61">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1">
+        <v>8.0199999999999994E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>517</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9.2099999999999999E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.5E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>176</v>
+      </c>
+      <c r="B66">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.34E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>517</v>
+      </c>
+      <c r="B67">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>